--- a/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,15 +185,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,18 +211,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -239,60 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -307,47 +247,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +375,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,175 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,20 +586,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +641,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -653,24 +673,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,7 +701,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,135 +710,135 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -840,14 +847,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,6 +870,9 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1204,22 +1220,23 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K$1:K$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="3" customWidth="1"/>
+    <col min="11" max="11" width="26.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
     <col min="13" max="16375" width="11.625" style="1" customWidth="1"/>
     <col min="16376" max="16384" width="11.625" style="1"/>
@@ -1238,9 +1255,9 @@
       <c r="H1" s="5"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="8"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="9"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
@@ -1273,48 +1290,48 @@
       <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="16.5" spans="1:12">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
@@ -185,14 +185,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -216,6 +217,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -224,8 +322,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,122 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,12 +376,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,169 +508,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +581,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -646,41 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -689,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -838,40 +839,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="21315" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:J3"/>
 </workbook>
 </file>
 
@@ -27,34 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t xml:space="preserve">jx:area(lastCell="L3")
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -67,34 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="L3")
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -186,16 +133,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +158,112 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,32 +276,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,99 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -370,7 +324,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,163 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +569,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,46 +632,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,178 +656,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,29 +1169,25 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
     <col min="13" max="16375" width="11.625" style="1" customWidth="1"/>
     <col min="16376" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1256,11 +1200,11 @@
       <c r="H1" s="5"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="11"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" ht="20" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1279,10 +1223,10 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1291,48 +1235,48 @@
       <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="L4")
+          <t xml:space="preserve">jx:area(lastCell="L3")
 </t>
         </r>
       </text>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="L3")
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>采购汇总查询-单据汇总</t>
   </si>
@@ -130,17 +132,6 @@
   </si>
   <si>
     <t>${obj.validUserName}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -150,8 +141,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -166,6 +157,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -173,22 +165,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,14 +232,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -261,19 +257,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -282,74 +275,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -369,7 +294,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -648,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -761,26 +686,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>

--- a/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalFormNo.xlsx
@@ -128,10 +128,11 @@
     <t>${obj.createUserName}</t>
   </si>
   <si>
-    <t>${obj.createTime}</t>
-  </si>
-  <si>
     <t>${obj.validUserName}</t>
+  </si>
+  <si>
+    <t>${obj.createTimeString}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,7 +577,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -680,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
